--- a/Financials/Quarterly/ING_QTR_FIN.xlsx
+++ b/Financials/Quarterly/ING_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E08926-B66B-48E6-A772-E13532A045CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ING" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>ING</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,94 +689,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15374600</v>
+        <v>16457300</v>
       </c>
       <c r="E8" s="3">
-        <v>3995600</v>
+        <v>3927000</v>
       </c>
       <c r="F8" s="3">
-        <v>25673600</v>
+        <v>14695800</v>
       </c>
       <c r="G8" s="3">
-        <v>4096600</v>
+        <v>3819300</v>
       </c>
       <c r="H8" s="3">
-        <v>25924800</v>
+        <v>24540200</v>
       </c>
       <c r="I8" s="3">
+        <v>3915700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>24780300</v>
+      </c>
+      <c r="K8" s="3">
         <v>3934600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>25747500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3973300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -769,8 +817,14 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,8 +852,14 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +871,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +902,14 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +937,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,37 +972,49 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-299300</v>
+        <v>-298400</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="3">
-        <v>-293500</v>
+        <v>-286100</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="3">
-        <v>-291100</v>
+        <v>-280500</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J15" s="3">
+        <v>-278300</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>-313400</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,66 +1023,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8267100</v>
+        <v>9435900</v>
       </c>
       <c r="E17" s="3">
-        <v>678500</v>
+        <v>343300</v>
       </c>
       <c r="F17" s="3">
-        <v>18242200</v>
+        <v>7902200</v>
       </c>
       <c r="G17" s="3">
-        <v>255900</v>
+        <v>648500</v>
       </c>
       <c r="H17" s="3">
-        <v>19109600</v>
+        <v>17436800</v>
       </c>
       <c r="I17" s="3">
+        <v>244600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>18266000</v>
+      </c>
+      <c r="K17" s="3">
         <v>712500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>18325500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>387400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7107400</v>
+        <v>7021400</v>
       </c>
       <c r="E18" s="3">
-        <v>3317200</v>
+        <v>3583600</v>
       </c>
       <c r="F18" s="3">
-        <v>7431400</v>
+        <v>6793600</v>
       </c>
       <c r="G18" s="3">
-        <v>3840700</v>
+        <v>3170700</v>
       </c>
       <c r="H18" s="3">
-        <v>6815100</v>
+        <v>7103300</v>
       </c>
       <c r="I18" s="3">
+        <v>3671200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6514300</v>
+      </c>
+      <c r="K18" s="3">
         <v>3222100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>7422000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3586000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,66 +1108,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2732600</v>
+        <v>-3530900</v>
       </c>
       <c r="E20" s="3">
-        <v>-1300600</v>
+        <v>-1200500</v>
       </c>
       <c r="F20" s="3">
-        <v>-3102400</v>
+        <v>-2612000</v>
       </c>
       <c r="G20" s="3">
-        <v>-1499000</v>
+        <v>-1243200</v>
       </c>
       <c r="H20" s="3">
-        <v>-2612900</v>
+        <v>-2965400</v>
       </c>
       <c r="I20" s="3">
+        <v>-1432800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-2497500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1283000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-4063700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1381600</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4688200</v>
+        <v>3774400</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>4634200</v>
+        <v>4481200</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="3">
-        <v>4507400</v>
+        <v>4429600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J21" s="3">
+        <v>4308400</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>3682200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1095,66 +1209,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4374800</v>
+        <v>3490500</v>
       </c>
       <c r="E23" s="3">
-        <v>2016600</v>
+        <v>2383100</v>
       </c>
       <c r="F23" s="3">
-        <v>4329000</v>
+        <v>4181700</v>
       </c>
       <c r="G23" s="3">
-        <v>2341800</v>
+        <v>1927600</v>
       </c>
       <c r="H23" s="3">
-        <v>4202200</v>
+        <v>4137900</v>
       </c>
       <c r="I23" s="3">
+        <v>2238400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>4016700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1939100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3358300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2204400</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1198500</v>
+        <v>1128700</v>
       </c>
       <c r="E24" s="3">
-        <v>543500</v>
+        <v>653000</v>
       </c>
       <c r="F24" s="3">
-        <v>1477800</v>
+        <v>1145600</v>
       </c>
       <c r="G24" s="3">
-        <v>698400</v>
+        <v>519500</v>
       </c>
       <c r="H24" s="3">
-        <v>1199600</v>
+        <v>1412600</v>
       </c>
       <c r="I24" s="3">
+        <v>667600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1146700</v>
+      </c>
+      <c r="K24" s="3">
         <v>535300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>851000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>612700</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1314,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3176300</v>
+        <v>2361800</v>
       </c>
       <c r="E26" s="3">
-        <v>1473100</v>
+        <v>1730100</v>
       </c>
       <c r="F26" s="3">
-        <v>2851200</v>
+        <v>3036100</v>
       </c>
       <c r="G26" s="3">
-        <v>1643300</v>
+        <v>1408100</v>
       </c>
       <c r="H26" s="3">
-        <v>3002600</v>
+        <v>2725300</v>
       </c>
       <c r="I26" s="3">
+        <v>1570800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2870100</v>
+      </c>
+      <c r="K26" s="3">
         <v>1403900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2507300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1591700</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3115300</v>
+        <v>2299000</v>
       </c>
       <c r="E27" s="3">
-        <v>1437900</v>
+        <v>1740200</v>
       </c>
       <c r="F27" s="3">
-        <v>2806600</v>
+        <v>2977800</v>
       </c>
       <c r="G27" s="3">
-        <v>1615200</v>
+        <v>1374400</v>
       </c>
       <c r="H27" s="3">
-        <v>2951000</v>
+        <v>2682700</v>
       </c>
       <c r="I27" s="3">
+        <v>1543900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2820700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1379200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2465000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1582300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,22 +1419,28 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
+      <c r="E29" s="3">
+        <v>-869500</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1292,14 +1448,20 @@
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-1200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1489,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,66 +1524,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2732600</v>
+        <v>3530900</v>
       </c>
       <c r="E32" s="3">
-        <v>1300600</v>
+        <v>1200500</v>
       </c>
       <c r="F32" s="3">
-        <v>3102400</v>
+        <v>2612000</v>
       </c>
       <c r="G32" s="3">
-        <v>1499000</v>
+        <v>1243200</v>
       </c>
       <c r="H32" s="3">
-        <v>2612900</v>
+        <v>2965400</v>
       </c>
       <c r="I32" s="3">
+        <v>1432800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2497500</v>
+      </c>
+      <c r="K32" s="3">
         <v>1283000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>4063700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1381600</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3115300</v>
+        <v>2299000</v>
       </c>
       <c r="E33" s="3">
-        <v>1437900</v>
+        <v>870700</v>
       </c>
       <c r="F33" s="3">
-        <v>2806600</v>
+        <v>2977800</v>
       </c>
       <c r="G33" s="3">
-        <v>1615200</v>
+        <v>1374400</v>
       </c>
       <c r="H33" s="3">
-        <v>2951000</v>
+        <v>2682700</v>
       </c>
       <c r="I33" s="3">
+        <v>1543900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2820700</v>
+      </c>
+      <c r="K33" s="3">
         <v>1379200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2463800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1583500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1629,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3115300</v>
+        <v>2299000</v>
       </c>
       <c r="E35" s="3">
-        <v>1437900</v>
+        <v>870700</v>
       </c>
       <c r="F35" s="3">
-        <v>2806600</v>
+        <v>2977800</v>
       </c>
       <c r="G35" s="3">
-        <v>1615200</v>
+        <v>1374400</v>
       </c>
       <c r="H35" s="3">
-        <v>2951000</v>
+        <v>2682700</v>
       </c>
       <c r="I35" s="3">
+        <v>1543900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2820700</v>
+      </c>
+      <c r="K35" s="3">
         <v>1379200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2463800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1583500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1723,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,66 +1738,80 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>82052800</v>
+        <v>90218100</v>
       </c>
       <c r="E41" s="3">
-        <v>73151800</v>
+        <v>80025900</v>
       </c>
       <c r="F41" s="3">
-        <v>59629500</v>
+        <v>78430500</v>
       </c>
       <c r="G41" s="3">
-        <v>60129600</v>
+        <v>69922400</v>
       </c>
       <c r="H41" s="3">
-        <v>53855600</v>
+        <v>56997100</v>
       </c>
       <c r="I41" s="3">
+        <v>57475100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>51478000</v>
+      </c>
+      <c r="K41" s="3">
         <v>83719700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>55171400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>60478200</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>272287500</v>
+        <v>188227300</v>
       </c>
       <c r="E42" s="3">
-        <v>275260800</v>
+        <v>240744300</v>
       </c>
       <c r="F42" s="3">
-        <v>144638000</v>
+        <v>260266900</v>
       </c>
       <c r="G42" s="3">
-        <v>165547100</v>
+        <v>263108900</v>
       </c>
       <c r="H42" s="3">
-        <v>168022700</v>
+        <v>138252700</v>
       </c>
       <c r="I42" s="3">
+        <v>158238700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>160605000</v>
+      </c>
+      <c r="K42" s="3">
         <v>160267300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>143314000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>168886600</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1619,8 +1839,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,8 +1874,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1677,8 +1909,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1706,95 +1944,119 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1270100</v>
+        <v>1349800</v>
       </c>
       <c r="E47" s="3">
-        <v>1277100</v>
+        <v>1239800</v>
       </c>
       <c r="F47" s="3">
-        <v>1277100</v>
+        <v>1214000</v>
       </c>
       <c r="G47" s="3">
-        <v>1251300</v>
+        <v>1220700</v>
       </c>
       <c r="H47" s="3">
-        <v>1251300</v>
+        <v>1220700</v>
       </c>
       <c r="I47" s="3">
+        <v>1196000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1196000</v>
+      </c>
+      <c r="K47" s="3">
         <v>1385100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1339300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1153900</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2146900</v>
+        <v>1922000</v>
       </c>
       <c r="E48" s="3">
-        <v>2096400</v>
+        <v>1988200</v>
       </c>
       <c r="F48" s="3">
-        <v>2190300</v>
+        <v>2052100</v>
       </c>
       <c r="G48" s="3">
-        <v>2212600</v>
+        <v>2003900</v>
       </c>
       <c r="H48" s="3">
-        <v>2351100</v>
+        <v>2093600</v>
       </c>
       <c r="I48" s="3">
+        <v>2115000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2247300</v>
+      </c>
+      <c r="K48" s="3">
         <v>2335900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2350000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2422700</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2095300</v>
+        <v>2063300</v>
       </c>
       <c r="E49" s="3">
-        <v>2044800</v>
+        <v>1964600</v>
       </c>
       <c r="F49" s="3">
-        <v>1724300</v>
+        <v>2002800</v>
       </c>
       <c r="G49" s="3">
-        <v>1754800</v>
+        <v>1954500</v>
       </c>
       <c r="H49" s="3">
-        <v>1750200</v>
+        <v>1648200</v>
       </c>
       <c r="I49" s="3">
+        <v>1677400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1672900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1733700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1741900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1905100</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +2084,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,37 +2119,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1778300</v>
+        <v>2950800</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F52" s="3">
-        <v>1596400</v>
+        <v>1699800</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H52" s="3">
-        <v>1076400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
+        <v>1525900</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J52" s="3">
+        <v>1028900</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>1083400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,37 +2189,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1063453100</v>
+        <v>995238800</v>
       </c>
       <c r="E54" s="3">
-        <v>1041192900</v>
+        <v>1011569400</v>
       </c>
       <c r="F54" s="3">
-        <v>993296800</v>
+        <v>1016505000</v>
       </c>
       <c r="G54" s="3">
-        <v>1011473300</v>
+        <v>995227600</v>
       </c>
       <c r="H54" s="3">
-        <v>1011884100</v>
+        <v>949445900</v>
       </c>
       <c r="I54" s="3">
+        <v>966819900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>967212600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1038604700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>991964500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1021850900</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2243,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,37 +2258,45 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2844100</v>
+        <v>2617600</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F57" s="3">
-        <v>7283500</v>
+        <v>2718600</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H57" s="3">
-        <v>6497000</v>
+        <v>6961900</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J57" s="3">
+        <v>6210200</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>5157700</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2022,37 +2324,49 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1825300</v>
+        <v>1905100</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F59" s="3">
-        <v>2034200</v>
+        <v>1744700</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H59" s="3">
-        <v>1562300</v>
+        <v>1944400</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J59" s="3">
+        <v>1493400</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>1221900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2080,66 +2394,84 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>155323200</v>
+        <v>149757600</v>
       </c>
       <c r="E61" s="3">
-        <v>147308500</v>
+        <v>149720600</v>
       </c>
       <c r="F61" s="3">
-        <v>131530100</v>
+        <v>148466200</v>
       </c>
       <c r="G61" s="3">
-        <v>126893600</v>
+        <v>140805300</v>
       </c>
       <c r="H61" s="3">
-        <v>135349700</v>
+        <v>125723500</v>
       </c>
       <c r="I61" s="3">
+        <v>121291600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>129374400</v>
+      </c>
+      <c r="K61" s="3">
         <v>152360500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>141393600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>147367200</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3062500</v>
+        <v>2410000</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F62" s="3">
-        <v>3554300</v>
+        <v>2927300</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H62" s="3">
-        <v>3675200</v>
+        <v>3397400</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J62" s="3">
+        <v>3513000</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>4070800</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2499,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2534,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,37 +2569,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1004782500</v>
+        <v>938093600</v>
       </c>
       <c r="E66" s="3">
-        <v>982308800</v>
+        <v>956595200</v>
       </c>
       <c r="F66" s="3">
-        <v>934129700</v>
+        <v>960424600</v>
       </c>
       <c r="G66" s="3">
-        <v>953052700</v>
+        <v>938942900</v>
       </c>
       <c r="H66" s="3">
-        <v>953563300</v>
+        <v>892890900</v>
       </c>
       <c r="I66" s="3">
+        <v>910978500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>911466500</v>
+      </c>
+      <c r="K66" s="3">
         <v>979044400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>933517000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>963813000</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2623,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2654,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2689,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2724,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,37 +2759,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>34510000</v>
+        <v>33950300</v>
       </c>
       <c r="E72" s="3">
-        <v>37679300</v>
+        <v>35750000</v>
       </c>
       <c r="F72" s="3">
-        <v>34039300</v>
+        <v>32986500</v>
       </c>
       <c r="G72" s="3">
-        <v>35769500</v>
+        <v>36015900</v>
       </c>
       <c r="H72" s="3">
-        <v>33171900</v>
+        <v>32536600</v>
       </c>
       <c r="I72" s="3">
+        <v>34190400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>31707400</v>
+      </c>
+      <c r="K72" s="3">
         <v>35526500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>31583700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>33312700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2829,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2864,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,37 +2899,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>58670500</v>
+        <v>57145200</v>
       </c>
       <c r="E76" s="3">
-        <v>58884200</v>
+        <v>54974100</v>
       </c>
       <c r="F76" s="3">
-        <v>59167100</v>
+        <v>56080400</v>
       </c>
       <c r="G76" s="3">
-        <v>58420500</v>
+        <v>56284600</v>
       </c>
       <c r="H76" s="3">
-        <v>58320700</v>
+        <v>56555000</v>
       </c>
       <c r="I76" s="3">
+        <v>55841400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>55746100</v>
+      </c>
+      <c r="K76" s="3">
         <v>59560300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>58447500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>58037900</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2969,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3115300</v>
+        <v>2299000</v>
       </c>
       <c r="E81" s="3">
-        <v>1437900</v>
+        <v>870700</v>
       </c>
       <c r="F81" s="3">
-        <v>2806600</v>
+        <v>2977800</v>
       </c>
       <c r="G81" s="3">
-        <v>1615200</v>
+        <v>1374400</v>
       </c>
       <c r="H81" s="3">
-        <v>2951000</v>
+        <v>2682700</v>
       </c>
       <c r="I81" s="3">
+        <v>1543900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2820700</v>
+      </c>
+      <c r="K81" s="3">
         <v>1379200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2463800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1583500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,37 +3063,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>313400</v>
+        <v>283900</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F83" s="3">
-        <v>305200</v>
+        <v>299600</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H83" s="3">
-        <v>305200</v>
+        <v>291700</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J83" s="3">
+        <v>291700</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>324000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +3129,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +3164,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +3199,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +3234,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3269,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3674000</v>
+        <v>11270400</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F89" s="3">
-        <v>2301800</v>
+        <v>-3511800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H89" s="3">
-        <v>-8467900</v>
+        <v>2200200</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J89" s="3">
+        <v>-8094000</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>4758600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,19 +3323,21 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-187800</v>
+        <v>-290600</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
+      <c r="F91" s="3">
+        <v>-30300</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
@@ -2878,8 +3354,14 @@
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3389,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3424,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>5255100</v>
+        <v>1092800</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F94" s="3">
-        <v>6201200</v>
+        <v>5023100</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H94" s="3">
-        <v>7595700</v>
+        <v>5927500</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J94" s="3">
+        <v>7260400</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>4319600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,37 +3478,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1963800</v>
+        <v>-1047900</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-1094000</v>
+        <v>-1877100</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-1915700</v>
+        <v>-1045700</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-1831100</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1092800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3544,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3579,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,91 +3614,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>19459400</v>
+        <v>-667600</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F100" s="3">
-        <v>-2888700</v>
+        <v>18600400</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H100" s="3">
-        <v>-1745500</v>
+        <v>-2761200</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J100" s="3">
+        <v>-1668400</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-20157800</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>241800</v>
+        <v>-2200</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F101" s="3">
-        <v>131500</v>
+        <v>231100</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H101" s="3">
-        <v>173700</v>
+        <v>125700</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J101" s="3">
+        <v>166100</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>851000</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>21282300</v>
+        <v>11693400</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F102" s="3">
-        <v>5745800</v>
+        <v>20342800</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H102" s="3">
-        <v>-2443900</v>
+        <v>5492100</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J102" s="3">
+        <v>-2336000</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>-10228600</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Financials/Quarterly/ING_QTR_FIN.xlsx
+++ b/Financials/Quarterly/ING_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E08926-B66B-48E6-A772-E13532A045CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="ING" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>ING</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,107 +654,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16457300</v>
+        <v>3874800</v>
       </c>
       <c r="E8" s="3">
-        <v>3927000</v>
+        <v>15783800</v>
       </c>
       <c r="F8" s="3">
-        <v>14695800</v>
+        <v>3824300</v>
       </c>
       <c r="G8" s="3">
-        <v>3819300</v>
+        <v>16105500</v>
       </c>
       <c r="H8" s="3">
+        <v>3843000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>14795600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3737600</v>
+      </c>
+      <c r="K8" s="3">
         <v>24540200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>3915700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>24780300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>3934600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>25747500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>3973300</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -823,8 +805,17 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -858,8 +849,17 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,8 +873,11 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +911,17 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -943,8 +955,17 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -978,43 +999,61 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>-298400</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-286100</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-424900</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-292100</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-280000</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>-280500</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>-278300</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>-313400</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1025,78 +1064,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9435900</v>
+        <v>419400</v>
       </c>
       <c r="E17" s="3">
-        <v>343300</v>
+        <v>9278100</v>
       </c>
       <c r="F17" s="3">
-        <v>7902200</v>
+        <v>792800</v>
       </c>
       <c r="G17" s="3">
-        <v>648500</v>
+        <v>9234200</v>
       </c>
       <c r="H17" s="3">
+        <v>336000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>8148300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>634600</v>
+      </c>
+      <c r="K17" s="3">
         <v>17436800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>244600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>18266000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>712500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>18325500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>387400</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7021400</v>
+        <v>3455400</v>
       </c>
       <c r="E18" s="3">
-        <v>3583600</v>
+        <v>6505700</v>
       </c>
       <c r="F18" s="3">
-        <v>6793600</v>
+        <v>3031600</v>
       </c>
       <c r="G18" s="3">
-        <v>3170700</v>
+        <v>6871300</v>
       </c>
       <c r="H18" s="3">
+        <v>3507000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>6647300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3102900</v>
+      </c>
+      <c r="K18" s="3">
         <v>7103300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>3671200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>6514300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>3222100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>7422000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>3586000</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,78 +1170,99 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3530900</v>
+        <v>-1357100</v>
       </c>
       <c r="E20" s="3">
-        <v>-1200500</v>
+        <v>-2568200</v>
       </c>
       <c r="F20" s="3">
-        <v>-2612000</v>
+        <v>-1294500</v>
       </c>
       <c r="G20" s="3">
-        <v>-1243200</v>
+        <v>-3455400</v>
       </c>
       <c r="H20" s="3">
+        <v>-1174900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-2555000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1216600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2965400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-1432800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-2497500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-1283000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-4063700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-1381600</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>3774400</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
-        <v>4481200</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4363500</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3693700</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>4385400</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>4429600</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>4308400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>3682200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1215,78 +1296,105 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3490500</v>
+        <v>2098300</v>
       </c>
       <c r="E23" s="3">
-        <v>2383100</v>
+        <v>3937400</v>
       </c>
       <c r="F23" s="3">
-        <v>4181700</v>
+        <v>1737000</v>
       </c>
       <c r="G23" s="3">
-        <v>1927600</v>
+        <v>3415900</v>
       </c>
       <c r="H23" s="3">
+        <v>2332200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>4092200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1886400</v>
+      </c>
+      <c r="K23" s="3">
         <v>4137900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>2238400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>4016700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>1939100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>3358300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>2204400</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1128700</v>
+        <v>596200</v>
       </c>
       <c r="E24" s="3">
-        <v>653000</v>
+        <v>1079300</v>
       </c>
       <c r="F24" s="3">
-        <v>1145600</v>
+        <v>486400</v>
       </c>
       <c r="G24" s="3">
-        <v>519500</v>
+        <v>1104600</v>
       </c>
       <c r="H24" s="3">
+        <v>639000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1121100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>508400</v>
+      </c>
+      <c r="K24" s="3">
         <v>1412600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>667600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>1146700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>535300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>851000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>612700</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1320,78 +1428,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2361800</v>
+        <v>1502100</v>
       </c>
       <c r="E26" s="3">
-        <v>1730100</v>
+        <v>2858100</v>
       </c>
       <c r="F26" s="3">
-        <v>3036100</v>
+        <v>1250600</v>
       </c>
       <c r="G26" s="3">
-        <v>1408100</v>
+        <v>2311300</v>
       </c>
       <c r="H26" s="3">
+        <v>1693100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2971200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1378000</v>
+      </c>
+      <c r="K26" s="3">
         <v>2725300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>1570800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>2870100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>1403900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>2507300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>1591700</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2299000</v>
+        <v>1475700</v>
       </c>
       <c r="E27" s="3">
-        <v>1740200</v>
+        <v>2806500</v>
       </c>
       <c r="F27" s="3">
-        <v>2977800</v>
+        <v>1227600</v>
       </c>
       <c r="G27" s="3">
-        <v>1374400</v>
+        <v>2249800</v>
       </c>
       <c r="H27" s="3">
+        <v>1703000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2914100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1345100</v>
+      </c>
+      <c r="K27" s="3">
         <v>2682700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>1543900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>2820700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>1379200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>2465000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>1582300</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1425,43 +1560,61 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3">
-        <v>-869500</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="H29" s="3">
+        <v>-851000</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-1200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="P29" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1495,8 +1648,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1530,78 +1692,105 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3530900</v>
+        <v>1357100</v>
       </c>
       <c r="E32" s="3">
-        <v>1200500</v>
+        <v>2568200</v>
       </c>
       <c r="F32" s="3">
-        <v>2612000</v>
+        <v>1294500</v>
       </c>
       <c r="G32" s="3">
-        <v>1243200</v>
+        <v>3455400</v>
       </c>
       <c r="H32" s="3">
+        <v>1174900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2555000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1216600</v>
+      </c>
+      <c r="K32" s="3">
         <v>2965400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>1432800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>2497500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>1283000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>4063700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>1381600</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2299000</v>
+        <v>1475700</v>
       </c>
       <c r="E33" s="3">
-        <v>870700</v>
+        <v>2806500</v>
       </c>
       <c r="F33" s="3">
-        <v>2977800</v>
+        <v>1227600</v>
       </c>
       <c r="G33" s="3">
-        <v>1374400</v>
+        <v>2249800</v>
       </c>
       <c r="H33" s="3">
+        <v>852000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>2914100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1345100</v>
+      </c>
+      <c r="K33" s="3">
         <v>2682700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>1543900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>2820700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>1379200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>2463800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>1583500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1635,83 +1824,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2299000</v>
+        <v>1475700</v>
       </c>
       <c r="E35" s="3">
-        <v>870700</v>
+        <v>2806500</v>
       </c>
       <c r="F35" s="3">
-        <v>2977800</v>
+        <v>1227600</v>
       </c>
       <c r="G35" s="3">
-        <v>1374400</v>
+        <v>2249800</v>
       </c>
       <c r="H35" s="3">
+        <v>852000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2914100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1345100</v>
+      </c>
+      <c r="K35" s="3">
         <v>2682700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>1543900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>2820700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>1379200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>2463800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>1583500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1725,8 +1941,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1740,78 +1959,99 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>90218100</v>
+        <v>100072800</v>
       </c>
       <c r="E41" s="3">
-        <v>80025900</v>
+        <v>95257000</v>
       </c>
       <c r="F41" s="3">
-        <v>78430500</v>
+        <v>87299800</v>
       </c>
       <c r="G41" s="3">
-        <v>69922400</v>
+        <v>88289100</v>
       </c>
       <c r="H41" s="3">
+        <v>78314900</v>
+      </c>
+      <c r="I41" s="3">
+        <v>76753500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>68427400</v>
+      </c>
+      <c r="K41" s="3">
         <v>56997100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>57475100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>51478000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>83719700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>55171400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>60478200</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>188227300</v>
+        <v>133939500</v>
       </c>
       <c r="E42" s="3">
-        <v>240744300</v>
+        <v>130582900</v>
       </c>
       <c r="F42" s="3">
-        <v>260266900</v>
+        <v>132695500</v>
       </c>
       <c r="G42" s="3">
-        <v>263108900</v>
+        <v>132293600</v>
       </c>
       <c r="H42" s="3">
+        <v>151733700</v>
+      </c>
+      <c r="I42" s="3">
+        <v>169496100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>171616300</v>
+      </c>
+      <c r="K42" s="3">
         <v>138252700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>158238700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>160605000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>160267300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>143314000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>168886600</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1845,8 +2085,17 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1880,8 +2129,17 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1915,8 +2173,17 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1950,113 +2217,149 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1349800</v>
+        <v>1582200</v>
       </c>
       <c r="E47" s="3">
-        <v>1239800</v>
+        <v>1446100</v>
       </c>
       <c r="F47" s="3">
-        <v>1214000</v>
+        <v>1390100</v>
       </c>
       <c r="G47" s="3">
+        <v>1320900</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1213300</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1188000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1194600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1220700</v>
       </c>
-      <c r="H47" s="3">
-        <v>1220700</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>1196000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>1196000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>1385100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>1339300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>1153900</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1922000</v>
+        <v>3403800</v>
       </c>
       <c r="E48" s="3">
-        <v>1988200</v>
+        <v>3101900</v>
       </c>
       <c r="F48" s="3">
-        <v>2052100</v>
+        <v>3206200</v>
       </c>
       <c r="G48" s="3">
-        <v>2003900</v>
+        <v>1880900</v>
       </c>
       <c r="H48" s="3">
+        <v>1945700</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2008200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1961000</v>
+      </c>
+      <c r="K48" s="3">
         <v>2093600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>2115000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>2247300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>2335900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>2350000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>2422700</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2063300</v>
+        <v>2129000</v>
       </c>
       <c r="E49" s="3">
-        <v>1964600</v>
+        <v>2104900</v>
       </c>
       <c r="F49" s="3">
-        <v>2002800</v>
+        <v>2041200</v>
       </c>
       <c r="G49" s="3">
-        <v>1954500</v>
+        <v>2019200</v>
       </c>
       <c r="H49" s="3">
+        <v>1922600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1959900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1912700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1648200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>1677400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>1672900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>1733700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>1741900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>1905100</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2090,8 +2393,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2125,43 +2437,61 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2950800</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2047800</v>
       </c>
       <c r="F52" s="3">
-        <v>1699800</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
+        <v>1337400</v>
+      </c>
+      <c r="G52" s="3">
+        <v>2887700</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1663500</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>1525900</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>1028900</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>1083400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2195,43 +2525,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>995238800</v>
+        <v>1012785300</v>
       </c>
       <c r="E54" s="3">
-        <v>1011569400</v>
+        <v>1002902200</v>
       </c>
       <c r="F54" s="3">
-        <v>1016505000</v>
+        <v>993618600</v>
       </c>
       <c r="G54" s="3">
-        <v>995227600</v>
+        <v>973958900</v>
       </c>
       <c r="H54" s="3">
+        <v>989940300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>994770400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>973948000</v>
+      </c>
+      <c r="K54" s="3">
         <v>949445900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>966819900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>967212600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>1038604700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>991964500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>1021850900</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2245,8 +2593,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2260,66 +2611,78 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>2617600</v>
+      <c r="D57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="3">
-        <v>2718600</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>2561600</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2660500</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>6961900</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>6210200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>5157700</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>52906000</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2330,43 +2693,61 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>1905100</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1744700</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>534700</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1864400</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1707400</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>1944400</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>1493400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>1221900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2400,78 +2781,105 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>149757600</v>
+        <v>149248900</v>
       </c>
       <c r="E61" s="3">
-        <v>149720600</v>
+        <v>94679400</v>
       </c>
       <c r="F61" s="3">
-        <v>148466200</v>
+        <v>148993100</v>
       </c>
       <c r="G61" s="3">
-        <v>140805300</v>
+        <v>146555600</v>
       </c>
       <c r="H61" s="3">
+        <v>146519300</v>
+      </c>
+      <c r="I61" s="3">
+        <v>145291800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>137794600</v>
+      </c>
+      <c r="K61" s="3">
         <v>125723500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>121291600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>129374400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>152360500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>141393600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>147367200</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>2410000</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2927300</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1710700</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
+        <v>2358500</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>2864700</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>3397400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>3513000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>4070800</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2505,8 +2913,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2540,8 +2957,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2575,43 +3001,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>938093600</v>
+        <v>954030200</v>
       </c>
       <c r="E66" s="3">
-        <v>956595200</v>
+        <v>945149600</v>
       </c>
       <c r="F66" s="3">
-        <v>960424600</v>
+        <v>935657400</v>
       </c>
       <c r="G66" s="3">
-        <v>938942900</v>
+        <v>918035600</v>
       </c>
       <c r="H66" s="3">
+        <v>936141600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>939889100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>918866800</v>
+      </c>
+      <c r="K66" s="3">
         <v>892890900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>910978500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>911466500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>979044400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>933517000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>963813000</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2625,8 +3069,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2660,8 +3107,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2695,8 +3151,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2730,8 +3195,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2765,43 +3239,61 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>33950300</v>
+        <v>38353100</v>
       </c>
       <c r="E72" s="3">
-        <v>35750000</v>
+        <v>34366300</v>
       </c>
       <c r="F72" s="3">
-        <v>32986500</v>
+        <v>38030300</v>
       </c>
       <c r="G72" s="3">
-        <v>36015900</v>
+        <v>33224400</v>
       </c>
       <c r="H72" s="3">
+        <v>34985600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>32281200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>35245800</v>
+      </c>
+      <c r="K72" s="3">
         <v>32536600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>34190400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>31707400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>35526500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>31583700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>33312700</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2835,8 +3327,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2870,8 +3371,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2905,43 +3415,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>57145200</v>
+        <v>58755100</v>
       </c>
       <c r="E76" s="3">
-        <v>54974100</v>
+        <v>57752600</v>
       </c>
       <c r="F76" s="3">
-        <v>56080400</v>
+        <v>57961200</v>
       </c>
       <c r="G76" s="3">
-        <v>56284600</v>
+        <v>55923300</v>
       </c>
       <c r="H76" s="3">
+        <v>53798700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>54881300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>55081200</v>
+      </c>
+      <c r="K76" s="3">
         <v>56555000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>55841400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>55746100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>59560300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>58447500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>58037900</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2975,83 +3503,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2299000</v>
+        <v>1475700</v>
       </c>
       <c r="E81" s="3">
-        <v>870700</v>
+        <v>2806500</v>
       </c>
       <c r="F81" s="3">
-        <v>2977800</v>
+        <v>1227600</v>
       </c>
       <c r="G81" s="3">
-        <v>1374400</v>
+        <v>2249800</v>
       </c>
       <c r="H81" s="3">
+        <v>852000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>2914100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1345100</v>
+      </c>
+      <c r="K81" s="3">
         <v>2682700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>1543900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>2820700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>1379200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>2463800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>1583500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3065,43 +3620,55 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>283900</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3">
-        <v>299600</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3">
+        <v>426000</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3">
+        <v>277800</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
+        <v>293200</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>291700</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>291700</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>324000</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3135,8 +3702,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3170,8 +3746,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3205,8 +3790,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3240,8 +3834,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3275,43 +3878,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>11270400</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-3511800</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4121900</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3">
+        <v>11029400</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-3436700</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>2200200</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>-8094000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>4758600</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3325,28 +3946,31 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-290600</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-30300</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-148200</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-284400</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
+      <c r="I91" s="3">
+        <v>-29600</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
@@ -3360,8 +3984,17 @@
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3395,8 +4028,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3430,43 +4072,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>1092800</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3">
-        <v>5023100</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
+        <v>2575900</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3">
+        <v>1069500</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
+        <v>4915700</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>5927500</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>7260400</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>4319600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3480,43 +4140,55 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1047900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1882000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1877100</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1025500</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-1837000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1045700</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1831100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1092800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3550,8 +4222,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3585,8 +4266,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3620,109 +4310,145 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-667600</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3">
-        <v>18600400</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-4310700</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-653300</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
+        <v>18202600</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2761200</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1668400</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-20157800</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-58200</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3">
         <v>-2200</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3">
-        <v>231100</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3">
+        <v>226200</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>125700</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>166100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>851000</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>11693400</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3">
-        <v>20342800</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2328900</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3">
+        <v>11443400</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
+        <v>19907800</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>5492100</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-2336000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>-10228600</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>5</v>
       </c>
     </row>
